--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление на трудовой отпуск.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление на трудовой отпуск.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Отдел кадров\ЗАЯВЛЕНИЯ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Документация\ЗАЯВЛЕНИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11640"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="18972" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="весь отпуск" sheetId="1" r:id="rId1"/>
@@ -555,20 +555,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
@@ -582,7 +582,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="D2" s="7" t="s">
@@ -598,7 +598,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
@@ -616,7 +616,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="D4" s="7"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -628,7 +628,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
@@ -642,7 +642,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -655,7 +655,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D7" s="9" t="s">
         <v>1</v>
       </c>
@@ -669,7 +669,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -680,7 +680,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -691,7 +691,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>2</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>10</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
@@ -738,7 +738,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>14</v>
       </c>
@@ -755,7 +755,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -765,7 +765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>8</v>
       </c>
@@ -775,10 +775,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
     </row>
-    <row r="24" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
         <v>12</v>
       </c>
@@ -786,7 +786,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
     </row>
-    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
         <v>16</v>
       </c>
@@ -794,7 +794,7 @@
       <c r="C26" s="27"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -802,7 +802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
         <v>15</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="C28" s="27"/>
       <c r="D28" s="17"/>
     </row>
-    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -818,7 +818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
         <v>13</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
     </row>
-    <row r="31" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="3"/>
@@ -834,7 +834,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
         <v>18</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="5"/>
@@ -850,13 +850,13 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
     </row>
-    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>

--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление на трудовой отпуск.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление на трудовой отпуск.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Документация\ЗАЯВЛЕНИЯ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Отдел кадров\ЗАЯВЛЕНИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="18972" windowHeight="11640"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="весь отпуск" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>(наименование должности (профессии))</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Согласовано:</t>
   </si>
   <si>
-    <t>Начальник структурного подразделения______________________________</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Прошу предоставить мне ежегодный трудовой отпуск   на ____ календарных дней с _________________ 2019</t>
-  </si>
-  <si>
     <t>Начальник производства</t>
   </si>
   <si>
@@ -78,7 +72,13 @@
     <t>_________________________________</t>
   </si>
   <si>
-    <t>Инспектор по кадрам                             __________________________________</t>
+    <t xml:space="preserve">     Прошу предоставить мне ежегодный трудовой отпуск   на ____ календарных дней с _________________ </t>
+  </si>
+  <si>
+    <t>Начальник структурного подразделения</t>
+  </si>
+  <si>
+    <t>Инспектор по кадрам</t>
   </si>
 </sst>
 </file>
@@ -186,17 +186,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -219,8 +213,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -246,9 +245,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -555,320 +557,329 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="D2" s="7" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="22"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D5" s="9" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D4" s="5"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D7" s="9" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="B11" s="26"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="B12" s="27"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+    </row>
+    <row r="24" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
-    </row>
-    <row r="24" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="17" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="2"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-    </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+    <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X+7+qUukTvPrtzT+pRcCd7QA8m4+aeuAAVztOHM7ARaXt50WTEMjWbSaAriY2m0BF9+v7QFgAy6vUaSyCnWYxQ==" saltValue="KCgdMOKf10Xwbo9uNci9Zw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="11">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A35:D35"/>
@@ -876,7 +887,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A26:C27"/>
-    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A28:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.39583333333333331" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
